--- a/biology/Biochimie/Stilbénoïde/Stilbénoïde.xlsx
+++ b/biology/Biochimie/Stilbénoïde/Stilbénoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stilb%C3%A9no%C3%AFde</t>
+          <t>Stilbénoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stilbénoïdes sont des dérivés hydroxylés du stilbène. Ils ont une structure C6–C2–C6. En termes biochimiques, ils appartiennent à la famille des phénylpropanoïdes et partagent l'essentiel de leur voie de biosynthèse avec les chalcones[1],[2]. La plupart des stilbénoïdes sont produits par les plantes[2],[3] et la seule exception connue est le stilbénoïde antihelminthique et antimicrobien, le 2-isopropyl-5-[( E )-2-phénylvinyl]benzène-1,3-diol, biosynthétisé par la bactérie Gram négatif Photorhabdus luminescens. [4],[5],[6]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stilbénoïdes sont des dérivés hydroxylés du stilbène. Ils ont une structure C6–C2–C6. En termes biochimiques, ils appartiennent à la famille des phénylpropanoïdes et partagent l'essentiel de leur voie de biosynthèse avec les chalcones,. La plupart des stilbénoïdes sont produits par les plantes, et la seule exception connue est le stilbénoïde antihelminthique et antimicrobien, le 2-isopropyl-5-[( E )-2-phénylvinyl]benzène-1,3-diol, biosynthétisé par la bactérie Gram négatif Photorhabdus luminescens. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stilb%C3%A9no%C3%AFde</t>
+          <t>Stilbénoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stilbénoïdes sont des dérivés hydroxylés du stilbène et ils ont une structure en C6–C2–C6. Ils appartiennent à la famille des phénylpropanoïdes. Ils partagent l'essentiel de leur voie de biosynthèse avec les chalcones[1],[2],[3]. Sous irradiation UV (ultraviolet), le stilbène et ses dérivés subissent une cyclisation intramoléculaire. Cette cyclisation est appelée photocyclisation du stilbène et permet la formation des dihydrophénanthrènes. Les formes oligomères sont connues sous le nom d'oligostilbénoïdes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stilbénoïdes sont des dérivés hydroxylés du stilbène et ils ont une structure en C6–C2–C6. Ils appartiennent à la famille des phénylpropanoïdes. Ils partagent l'essentiel de leur voie de biosynthèse avec les chalcones. Sous irradiation UV (ultraviolet), le stilbène et ses dérivés subissent une cyclisation intramoléculaire. Cette cyclisation est appelée photocyclisation du stilbène et permet la formation des dihydrophénanthrènes. Les formes oligomères sont connues sous le nom d'oligostilbénoïdes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stilb%C3%A9no%C3%AFde</t>
+          <t>Stilbénoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Les types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aglycones
 Piceatannol dans les racines des épicéas de Norvège
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stilb%C3%A9no%C3%AFde</t>
+          <t>Stilbénoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stilbénoïdes sont produits dans plusieurs variétés de plantes, par exemple ce sont des produits secondaires de la formation du bois de cœur dans les arbres qui peuvent agir comme phytoalexines. Un autre exemple est le resvératrol, un antifongique présent dans le raisin et dont on a suggéré qu'il avait des effets bénéfiques sur la santé[7]. Ampelopsin A et Ampelopsin B sont des dimères de resvératrol produits dans la baie de porcelaine.
-Un stilbénoïde bactérien, le (E)-3,5-dihydroxy-4-isopropyl-trans-stilbène, est produit par Photorhabdus qui est un symbiote bactérien de nématodes d'insectes appelé Heterorhabditis[8] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stilbénoïdes sont produits dans plusieurs variétés de plantes, par exemple ce sont des produits secondaires de la formation du bois de cœur dans les arbres qui peuvent agir comme phytoalexines. Un autre exemple est le resvératrol, un antifongique présent dans le raisin et dont on a suggéré qu'il avait des effets bénéfiques sur la santé. Ampelopsin A et Ampelopsin B sont des dimères de resvératrol produits dans la baie de porcelaine.
+Un stilbénoïde bactérien, le (E)-3,5-dihydroxy-4-isopropyl-trans-stilbène, est produit par Photorhabdus qui est un symbiote bactérien de nématodes d'insectes appelé Heterorhabditis .
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stilb%C3%A9no%C3%AFde</t>
+          <t>Stilbénoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines études suggèrent que les phytoalexines sont responsables de la résistance à certaines maladies des arbres, telles que le flétrissement du pin.
 </t>
